--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Task Description</t>
   </si>
@@ -48,13 +48,22 @@
     <t>Search</t>
   </si>
   <si>
-    <t>Add Swap to cards</t>
-  </si>
-  <si>
     <t>Add cards to WomenList</t>
   </si>
   <si>
     <t>Add icon to cards in RelativeLayout</t>
+  </si>
+  <si>
+    <t>Add Home item to menus (example in CardFlip)</t>
+  </si>
+  <si>
+    <t>Add Swipe to cards</t>
+  </si>
+  <si>
+    <t>Randomize cards</t>
+  </si>
+  <si>
+    <t>Fill WomenList</t>
   </si>
 </sst>
 </file>
@@ -422,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1">
@@ -501,18 +510,48 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Task Description</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Add icon to cards in RelativeLayout</t>
   </si>
   <si>
-    <t>Add Home item to menus (example in CardFlip)</t>
-  </si>
-  <si>
     <t>Add Swipe to cards</t>
   </si>
   <si>
@@ -64,13 +61,43 @@
   </si>
   <si>
     <t>Fill WomenList</t>
+  </si>
+  <si>
+    <t>MainScreen default fragment</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Not Working</t>
+  </si>
+  <si>
+    <t>Only for API &lt; 3.0</t>
+  </si>
+  <si>
+    <t>Search in API 3.0+</t>
+  </si>
+  <si>
+    <t>onFling in cards</t>
+  </si>
+  <si>
+    <t>Add DoubleTap to cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Home item to menus </t>
+  </si>
+  <si>
+    <t>Add Settings</t>
+  </si>
+  <si>
+    <t>Add About</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +121,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +146,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,20 +177,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="כותרת 2" xfId="1" builtinId="17"/>
+    <cellStyle name="ניטראלי" xfId="4" builtinId="28"/>
+    <cellStyle name="רע" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,40 +488,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1">
+    <row r="1" spans="1:8" ht="18" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1"/>
-    <row r="3" spans="1:7">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -472,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -480,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -488,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -496,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -504,12 +578,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -517,41 +594,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Task Description</t>
   </si>
@@ -78,19 +78,28 @@
     <t>Search in API 3.0+</t>
   </si>
   <si>
-    <t>onFling in cards</t>
-  </si>
-  <si>
     <t>Add DoubleTap to cards</t>
   </si>
   <si>
     <t xml:space="preserve">Add Home item to menus </t>
   </si>
   <si>
-    <t>Add Settings</t>
-  </si>
-  <si>
-    <t>Add About</t>
+    <t>Add Settings menu item</t>
+  </si>
+  <si>
+    <t>Add About menu item</t>
+  </si>
+  <si>
+    <t>Add Exit menu item</t>
+  </si>
+  <si>
+    <t>Split Array from String in resources</t>
+  </si>
+  <si>
+    <t>Add Preferences Activity</t>
+  </si>
+  <si>
+    <t>Moved Fragments to separate package</t>
   </si>
 </sst>
 </file>
@@ -488,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -518,7 +527,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -531,12 +540,6 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -595,16 +598,16 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -620,7 +623,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -651,13 +654,51 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Task Description</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>Moved Fragments to separate package</t>
+  </si>
+  <si>
+    <t>Navigation Drawer with ListView</t>
+  </si>
+  <si>
+    <t>Tab Navigation between cards</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Music control in Preferences</t>
+  </si>
+  <si>
+    <t>Design custom buttons</t>
+  </si>
+  <si>
+    <t>Add Background to all pages</t>
+  </si>
+  <si>
+    <t>Slide Navigation between cards</t>
   </si>
 </sst>
 </file>
@@ -497,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,6 +720,41 @@
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Task Description</t>
   </si>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,13 +728,19 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -753,8 +759,11 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Task Description</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Slide Navigation between cards</t>
+  </si>
+  <si>
+    <t>Exception when openning Preferences in API 11</t>
   </si>
 </sst>
 </file>
@@ -521,14 +524,14 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,6 +564,12 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -744,8 +753,11 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Task Description</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Exception when openning Preferences in API 11</t>
+  </si>
+  <si>
+    <t>Navigation Drawer with GridView</t>
+  </si>
+  <si>
+    <t>Turn all sub activities to Fragments</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,8 +738,11 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -776,6 +785,16 @@
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Maxim Resources/Tasks.xlsx
+++ b/Maxim Resources/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Task Description</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Music control in Preferences</t>
   </si>
   <si>
-    <t>Design custom buttons</t>
-  </si>
-  <si>
     <t>Add Background to all pages</t>
   </si>
   <si>
@@ -126,10 +123,7 @@
     <t>Exception when openning Preferences in API 11</t>
   </si>
   <si>
-    <t>Navigation Drawer with GridView</t>
-  </si>
-  <si>
-    <t>Turn all sub activities to Fragments</t>
+    <t>Design custom button with Selector</t>
   </si>
 </sst>
 </file>
@@ -527,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -770,31 +764,24 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>32</v>
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
